--- a/3/2/1/En $ (PDBC) 1998 a 2021 - Mensual.xlsx
+++ b/3/2/1/En $ (PDBC) 1998 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>Serie</t>
   </si>
@@ -845,6 +845,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4582,13 +4585,39 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.61</v>
+        <v>0.7</v>
       </c>
       <c r="C271">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D271">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
+      </c>
+      <c r="E271">
+        <v>1.24</v>
+      </c>
+      <c r="F271">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272">
+        <v>0.82</v>
+      </c>
+      <c r="C272">
+        <v>0.97</v>
+      </c>
+      <c r="D272">
+        <v>1.06</v>
+      </c>
+      <c r="E272">
+        <v>1.49</v>
+      </c>
+      <c r="F272">
+        <v>2.12</v>
       </c>
     </row>
   </sheetData>

--- a/3/2/1/En $ (PDBC) 1998 a 2021 - Mensual.xlsx
+++ b/3/2/1/En $ (PDBC) 1998 a 2021 - Mensual.xlsx
@@ -4605,19 +4605,19 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="C272">
-        <v>0.97</v>
+        <v>1.03</v>
       </c>
       <c r="D272">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="E272">
-        <v>1.49</v>
+        <v>1.58</v>
       </c>
       <c r="F272">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
     </row>
   </sheetData>

--- a/3/2/1/En $ (PDBC) 1998 a 2021 - Mensual.xlsx
+++ b/3/2/1/En $ (PDBC) 1998 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
   <si>
     <t>Serie</t>
   </si>
@@ -848,6 +848,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4620,6 +4623,26 @@
         <v>2.15</v>
       </c>
     </row>
+    <row r="273" spans="1:6">
+      <c r="A273" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273">
+        <v>1.49</v>
+      </c>
+      <c r="C273">
+        <v>1.83</v>
+      </c>
+      <c r="D273">
+        <v>1.95</v>
+      </c>
+      <c r="E273">
+        <v>2.25</v>
+      </c>
+      <c r="F273">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/2/1/En $ (PDBC) 1998 a 2021 - Mensual.xlsx
+++ b/3/2/1/En $ (PDBC) 1998 a 2021 - Mensual.xlsx
@@ -4628,19 +4628,19 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="C273">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="D273">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="E273">
         <v>2.25</v>
       </c>
       <c r="F273">
-        <v>3</v>
+        <v>3.24</v>
       </c>
     </row>
   </sheetData>

--- a/3/2/1/En $ (PDBC) 1998 a 2021 - Mensual.xlsx
+++ b/3/2/1/En $ (PDBC) 1998 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>Serie</t>
   </si>
@@ -851,6 +851,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4643,6 +4646,20 @@
         <v>3.24</v>
       </c>
     </row>
+    <row r="274" spans="1:6">
+      <c r="A274" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274">
+        <v>2.74</v>
+      </c>
+      <c r="C274">
+        <v>2.71</v>
+      </c>
+      <c r="D274">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
